--- a/biology/Médecine/Dermographisme/Dermographisme.xlsx
+++ b/biology/Médecine/Dermographisme/Dermographisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dermographisme, ou dermatose stéréographique ou encore autographisme, se réfère à une sensibilité particulière de la peau de certains sujets ; on dit parfois « dermographisme digital » dans la mesure où le trouble peut apparaître simplement en écrivant sur la peau avec l'ongle, ou parfois simplement le doigt. Le résultat est un rougissement du tracé effectué, suivi d'un gonflement tout le long de ce tracé dont les contours apparaissent en relief. On peut alors « lire » ce qui a été écrit ou contempler le dessin qu'on a fait. Ce phénomène est déclenché de manière encore plus facile avec un stylet ou une pointe émoussée. On voit apparaître un trait rouge suivi d'une saillie de coloration blanche.
-Il s'agit en fait d'une forme particulière d'urticaire : les « urticaires physiques »[1], c'est-à-dire les urticaires dont le facteur déclenchant est un facteur physique (le froid, l'exposition solaire, la pression cutanée).
+Il s'agit en fait d'une forme particulière d'urticaire : les « urticaires physiques », c'est-à-dire les urticaires dont le facteur déclenchant est un facteur physique (le froid, l'exposition solaire, la pression cutanée).
 Les urticaires physiques regroupent le dermographisme, l'urticaire au froid, l'urticaire aquagénique, etc.
 La lésion apparaît quelques minutes seulement après la stimulation de la peau. Il s'agit d'une raie rouge puis blanche devenant saillante et formant un bourrelet pendant un temps plus ou moins long (qui est de plusieurs minutes). La lésion peut démanger ou non.
-Le dermographisme doit faire l'objet d'un diagnostic médical, établi par un dermatologue. S'il est invalidant, des traitements pourront être prescrits. En cas d'aggravation ou d'association à une urticaire chronique spontanée, il est indispensable de consulter un médecin. Des mesures d'hygiène de vie peuvent être mises en place pour retrouver un peu de confort au quotidien[2].
-Si le dermographisme démange ou est douloureux, le patient pourra également se tourner vers des associations spécialisées dans l'accompagnement des maladies d'urticaire chronique ou de maladies cutanées[3]. Le patient pourra également se tourner vers des sites d'informations pour obtenir des réponses sur leur maladie[4].
+Le dermographisme doit faire l'objet d'un diagnostic médical, établi par un dermatologue. S'il est invalidant, des traitements pourront être prescrits. En cas d'aggravation ou d'association à une urticaire chronique spontanée, il est indispensable de consulter un médecin. Des mesures d'hygiène de vie peuvent être mises en place pour retrouver un peu de confort au quotidien.
+Si le dermographisme démange ou est douloureux, le patient pourra également se tourner vers des associations spécialisées dans l'accompagnement des maladies d'urticaire chronique ou de maladies cutanées. Le patient pourra également se tourner vers des sites d'informations pour obtenir des réponses sur leur maladie.
 </t>
         </is>
       </c>
@@ -516,10 +528,12 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'apparition de l'inflammation de la peau est liée à la libération d'histamine et secondairement de sérotonine dans la peau (ces substances sont produites ici par des mastocytes). Le déclenchement de cette sécrétion est de type non allergique et est souvent associé à une urticaire chronique. Divers stimulus, ne passant pas par une immunité humorale (IgE) et/ou cellulaire vont activer la dégranulation mastocytaire et provoquer les symptômes.
-Le réflexe de Müller (de)[5] est une forme de dermographisme douloureux qui survient si on passe une aiguille sur la peau du sujet. On attribue ce réflexe à une excitabilité sympathique excessive.
+Le réflexe de Müller (de) est une forme de dermographisme douloureux qui survient si on passe une aiguille sur la peau du sujet. On attribue ce réflexe à une excitabilité sympathique excessive.
 </t>
         </is>
       </c>
